--- a/amd.xlsx
+++ b/amd.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="83">
   <si>
     <t>Amd</t>
   </si>
@@ -58,10 +58,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Código do produto:</t>
-  </si>
-  <si>
-    <t>A66OBHD35B</t>
+    <t>Product code:</t>
+  </si>
+  <si>
+    <t>Y1B8GQPW6Y</t>
   </si>
   <si>
     <t>Date:</t>
@@ -88,9 +88,6 @@
     <t>2018-01-12T02:00:00Z</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>HARDWARE</t>
   </si>
   <si>
@@ -178,7 +175,7 @@
     <t>RX 580</t>
   </si>
   <si>
-    <t>B22950YYTW</t>
+    <t>RYZS7K8MVD</t>
   </si>
   <si>
     <t>12/02/2018</t>
@@ -187,7 +184,7 @@
     <t>2018-02-12T02:00:00Z</t>
   </si>
   <si>
-    <t>114H626D63</t>
+    <t>OQZALOLST6</t>
   </si>
   <si>
     <t>12/03/2018</t>
@@ -196,7 +193,7 @@
     <t>2018-03-12T03:00:00Z</t>
   </si>
   <si>
-    <t>RWJKKX4126</t>
+    <t>HIKT1YAGS6</t>
   </si>
   <si>
     <t>12/04/2018</t>
@@ -205,7 +202,7 @@
     <t>2018-04-12T03:00:00Z</t>
   </si>
   <si>
-    <t>J0U77S9PU3</t>
+    <t>KHMTEAH9QV</t>
   </si>
   <si>
     <t>12/05/2018</t>
@@ -214,7 +211,7 @@
     <t>2018-05-12T03:00:00Z</t>
   </si>
   <si>
-    <t>U3A2FGA0ZA</t>
+    <t>XBETQ5WFG2</t>
   </si>
   <si>
     <t>12/06/2018</t>
@@ -223,7 +220,7 @@
     <t>2018-06-12T03:00:00Z</t>
   </si>
   <si>
-    <t>MMSTAHI38D</t>
+    <t>NAIOP8M205</t>
   </si>
   <si>
     <t>12/07/2018</t>
@@ -232,7 +229,7 @@
     <t>2018-07-12T03:00:00Z</t>
   </si>
   <si>
-    <t>9RAPZ90L9B</t>
+    <t>AWHOSBEC9C</t>
   </si>
   <si>
     <t>12/08/2018</t>
@@ -241,7 +238,7 @@
     <t>2018-08-12T03:00:00Z</t>
   </si>
   <si>
-    <t>B7QHNBA3WE</t>
+    <t>26OC8ZH0KU</t>
   </si>
   <si>
     <t>12/09/2018</t>
@@ -250,7 +247,7 @@
     <t>2018-09-12T03:00:00Z</t>
   </si>
   <si>
-    <t>GOBTV6RIPU</t>
+    <t>J28XKT3O9U</t>
   </si>
   <si>
     <t>12/10/2018</t>
@@ -259,7 +256,7 @@
     <t>2018-10-12T03:00:00Z</t>
   </si>
   <si>
-    <t>NP0L2W9U8D</t>
+    <t>491BMCAPYG</t>
   </si>
   <si>
     <t>12/11/2018</t>
@@ -268,7 +265,7 @@
     <t>2018-11-12T02:00:00Z</t>
   </si>
   <si>
-    <t>K31G9O7HUM</t>
+    <t>L818ROMS5C</t>
   </si>
   <si>
     <t>12/12/2018</t>
@@ -1545,7 +1542,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -1553,7 +1550,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.34375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -1628,118 +1625,106 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1748,179 +1733,161 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1931,130 +1898,118 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2030,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -2096,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="148">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -2104,7 +2059,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="150">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2156,120 +2111,108 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -2278,313 +2221,283 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +2518,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -2613,7 +2526,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.703125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.50390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -2626,7 +2539,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="163">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -2634,7 +2547,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="165">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2686,120 +2599,108 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -2808,278 +2709,251 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" t="n">
         <v>11.0</v>
@@ -3087,34 +2961,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3006,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -3143,7 +3014,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.1484375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.13671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -3156,7 +3027,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="178">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -3164,7 +3035,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="180">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -3216,120 +3087,108 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -3338,313 +3197,283 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -3665,7 +3494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -3673,7 +3502,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.984375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.19921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -3686,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="28">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -3694,7 +3523,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="30">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -3746,16 +3575,13 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
         <v>6.0</v>
@@ -3763,103 +3589,94 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -3868,214 +3685,193 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" t="n">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" t="n">
         <v>14.0</v>
@@ -4083,98 +3879,89 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
       <c r="J19" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -4195,7 +3982,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -4216,7 +4003,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="43">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -4224,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="45">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -4276,120 +4063,108 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -4398,214 +4173,193 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" t="n">
         <v>1.0</v>
@@ -4613,95 +4367,86 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" t="n">
         <v>2.0</v>
@@ -4725,7 +4470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -4746,7 +4491,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="58">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -4754,7 +4499,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="60">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -4806,120 +4551,108 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -4928,278 +4661,251 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="n">
         <v>10.0</v>
@@ -5207,31 +4913,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" t="n">
         <v>9.0</v>
@@ -5255,7 +4958,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -5263,7 +4966,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.91796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.06640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -5276,7 +4979,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="73">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -5284,7 +4987,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="75">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -5336,120 +5039,108 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -5458,313 +5149,283 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -5785,7 +5446,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -5793,7 +5454,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.58984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -5806,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="88">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -5814,7 +5475,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="90">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -5866,16 +5527,13 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" t="n">
         <v>6.0</v>
@@ -5883,103 +5541,94 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -5988,118 +5637,106 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" t="n">
         <v>16.0</v>
@@ -6107,194 +5744,176 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -6315,7 +5934,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -6323,7 +5942,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.6640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.21875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -6336,7 +5955,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="103">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -6344,7 +5963,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="105">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -6396,80 +6015,71 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="n">
         <v>8.0</v>
@@ -6477,39 +6087,36 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -6518,86 +6125,77 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
@@ -6605,226 +6203,205 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J18" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -6845,7 +6422,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -6853,7 +6430,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.91796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -6866,7 +6443,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="118">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -6874,7 +6451,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="120">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -6926,120 +6503,108 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -7048,313 +6613,283 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J19" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -7375,7 +6910,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.84765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
@@ -7383,7 +6918,7 @@
     <col min="6" max="6" width="21.2734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.23828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
@@ -7396,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="133">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -7404,7 +6939,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="135">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -7456,120 +6991,108 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -7578,313 +7101,283 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
